--- a/datos_con_colmena.xlsx
+++ b/datos_con_colmena.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Milagros Azcueta\Documents\GitHub\TP-FINAL-BIOME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - cnba.uba.ar\UBA\Biologia\Biometría II\TP-FINAL-BIOME\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE4117A-7E7C-4B32-B083-8A68E7A43CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11232"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sin muertos + Sin 0" sheetId="4" r:id="rId1"/>
@@ -54,19 +55,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Semana</t>
-  </si>
-  <si>
-    <t>Colmena</t>
-  </si>
-  <si>
     <t>ANT</t>
   </si>
   <si>
     <t>PROB</t>
-  </si>
-  <si>
-    <t>TRAT</t>
   </si>
   <si>
     <t>constante_bajo</t>
@@ -92,11 +84,20 @@
   <si>
     <t>contraste_neg</t>
   </si>
+  <si>
+    <t>COLMENA</t>
+  </si>
+  <si>
+    <t>SEMANA</t>
+  </si>
+  <si>
+    <t>TRATAMIENTO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +294,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -368,6 +369,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -403,6 +421,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,77 +613,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F133"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="11.42578125" style="6"/>
     <col min="2" max="2" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11" max="13" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="1" customWidth="1"/>
-    <col min="27" max="29" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="13" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="1" customWidth="1"/>
+    <col min="27" max="29" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="1" customWidth="1"/>
     <col min="32" max="32" width="4" style="1" customWidth="1"/>
-    <col min="33" max="33" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="45" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="12.109375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="6.88671875" style="1" customWidth="1"/>
-    <col min="50" max="50" width="7.109375" style="1" customWidth="1"/>
-    <col min="51" max="51" width="8.88671875" style="1" customWidth="1"/>
-    <col min="52" max="52" width="7.6640625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="8.44140625" style="1" customWidth="1"/>
-    <col min="54" max="54" width="9.88671875" style="1" customWidth="1"/>
-    <col min="55" max="56" width="9.44140625" style="1" customWidth="1"/>
-    <col min="57" max="57" width="8.6640625" style="1" customWidth="1"/>
-    <col min="58" max="58" width="7.6640625" style="1" customWidth="1"/>
-    <col min="59" max="61" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="1014" width="12.109375" style="1" customWidth="1"/>
-    <col min="1015" max="16384" width="11.44140625" style="1"/>
+    <col min="33" max="33" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="45" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="12.140625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="6.85546875" style="1" customWidth="1"/>
+    <col min="50" max="50" width="7.140625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="8.85546875" style="1" customWidth="1"/>
+    <col min="52" max="52" width="7.7109375" style="1" customWidth="1"/>
+    <col min="53" max="53" width="8.42578125" style="1" customWidth="1"/>
+    <col min="54" max="54" width="9.85546875" style="1" customWidth="1"/>
+    <col min="55" max="56" width="9.42578125" style="1" customWidth="1"/>
+    <col min="57" max="57" width="8.7109375" style="1" customWidth="1"/>
+    <col min="58" max="58" width="7.7109375" style="1" customWidth="1"/>
+    <col min="59" max="61" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="1014" width="12.140625" style="1" customWidth="1"/>
+    <col min="1015" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>0</v>
@@ -673,7 +708,7 @@
       </c>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -684,13 +719,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -715,7 +750,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -726,13 +761,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -757,7 +792,7 @@
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -768,13 +803,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -799,7 +834,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -810,13 +845,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -841,7 +876,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -852,13 +887,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -883,7 +918,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -894,13 +929,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -925,7 +960,7 @@
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -936,13 +971,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -967,7 +1002,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -978,13 +1013,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -1009,7 +1044,7 @@
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1020,13 +1055,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -1051,7 +1086,7 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1062,13 +1097,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1093,7 +1128,7 @@
       </c>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1104,13 +1139,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -1135,7 +1170,7 @@
       </c>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1146,13 +1181,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -1177,7 +1212,7 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1188,13 +1223,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -1219,7 +1254,7 @@
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1230,13 +1265,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -1261,7 +1296,7 @@
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1272,13 +1307,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1303,7 +1338,7 @@
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1314,13 +1349,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -1345,7 +1380,7 @@
       </c>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1356,14 +1391,14 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G18" s="6">
         <v>0</v>
       </c>
@@ -1387,7 +1422,7 @@
       </c>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1398,14 +1433,14 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
@@ -1429,7 +1464,7 @@
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -1440,14 +1475,14 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G20" s="6">
         <v>0</v>
       </c>
@@ -1471,7 +1506,7 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -1482,14 +1517,14 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G21" s="7">
         <v>0</v>
       </c>
@@ -1513,7 +1548,7 @@
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -1524,14 +1559,14 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G22" s="6">
         <v>0</v>
       </c>
@@ -1555,7 +1590,7 @@
       </c>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1566,13 +1601,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
@@ -1597,7 +1632,7 @@
       </c>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -1608,13 +1643,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
@@ -1639,7 +1674,7 @@
       </c>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -1650,13 +1685,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
@@ -1681,7 +1716,7 @@
       </c>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -1692,13 +1727,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
@@ -1723,7 +1758,7 @@
       </c>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1734,13 +1769,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G27" s="6">
         <v>0</v>
@@ -1765,7 +1800,7 @@
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -1776,13 +1811,13 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
@@ -1807,7 +1842,7 @@
       </c>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -1818,13 +1853,13 @@
         <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -1849,7 +1884,7 @@
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -1860,13 +1895,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -1891,7 +1926,7 @@
       </c>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -1902,13 +1937,13 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -1933,7 +1968,7 @@
       </c>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -1944,13 +1979,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G32" s="6">
         <v>0</v>
@@ -1975,7 +2010,7 @@
       </c>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -1986,13 +2021,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2017,7 +2052,7 @@
       </c>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2028,14 +2063,14 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G34" s="6">
         <v>0</v>
       </c>
@@ -2059,7 +2094,7 @@
       </c>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2070,14 +2105,14 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G35" s="6">
         <v>0</v>
       </c>
@@ -2101,7 +2136,7 @@
       </c>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2112,13 +2147,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G36" s="6">
         <v>0</v>
@@ -2143,7 +2178,7 @@
       </c>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2154,13 +2189,13 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G37" s="7">
         <v>0</v>
@@ -2185,7 +2220,7 @@
       </c>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2196,13 +2231,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G38" s="6">
         <v>0</v>
@@ -2227,7 +2262,7 @@
       </c>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2238,13 +2273,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G39" s="7">
         <v>0</v>
@@ -2269,7 +2304,7 @@
       </c>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2280,13 +2315,13 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G40" s="6">
         <v>0</v>
@@ -2311,7 +2346,7 @@
       </c>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2322,13 +2357,13 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G41" s="7">
         <v>0</v>
@@ -2353,7 +2388,7 @@
       </c>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>6</v>
       </c>
@@ -2364,14 +2399,14 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G42" s="6">
         <v>0</v>
       </c>
@@ -2395,7 +2430,7 @@
       </c>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>6</v>
       </c>
@@ -2406,14 +2441,14 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G43" s="6">
         <v>0</v>
       </c>
@@ -2437,7 +2472,7 @@
       </c>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>6</v>
       </c>
@@ -2448,14 +2483,14 @@
         <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G44" s="6">
         <v>0</v>
       </c>
@@ -2479,7 +2514,7 @@
       </c>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>6</v>
       </c>
@@ -2490,14 +2525,14 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
@@ -2521,7 +2556,7 @@
       </c>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>6</v>
       </c>
@@ -2532,14 +2567,14 @@
         <v>45</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G46" s="6">
         <v>0</v>
       </c>
@@ -2563,7 +2598,7 @@
       </c>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>6</v>
       </c>
@@ -2574,14 +2609,14 @@
         <v>46</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G47" s="7">
         <v>0</v>
       </c>
@@ -2605,7 +2640,7 @@
       </c>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>6</v>
       </c>
@@ -2616,14 +2651,14 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G48" s="7">
         <v>0</v>
       </c>
@@ -2647,7 +2682,7 @@
       </c>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>6</v>
       </c>
@@ -2658,13 +2693,13 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G49" s="7">
         <v>0</v>
@@ -2689,7 +2724,7 @@
       </c>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>6</v>
       </c>
@@ -2700,13 +2735,13 @@
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G50" s="6">
         <v>0</v>
@@ -2731,7 +2766,7 @@
       </c>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
@@ -2742,13 +2777,13 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G51" s="6">
         <v>0</v>
@@ -2773,7 +2808,7 @@
       </c>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>6</v>
       </c>
@@ -2784,13 +2819,13 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G52" s="6">
         <v>0</v>
@@ -2815,7 +2850,7 @@
       </c>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>6</v>
       </c>
@@ -2826,13 +2861,13 @@
         <v>52</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G53" s="7">
         <v>0</v>
@@ -2857,7 +2892,7 @@
       </c>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>6</v>
       </c>
@@ -2868,13 +2903,13 @@
         <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G54" s="6">
         <v>0</v>
@@ -2899,7 +2934,7 @@
       </c>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>6</v>
       </c>
@@ -2910,13 +2945,13 @@
         <v>54</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G55" s="7">
         <v>0</v>
@@ -2941,7 +2976,7 @@
       </c>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>6</v>
       </c>
@@ -2952,13 +2987,13 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G56" s="7">
         <v>0</v>
@@ -2983,7 +3018,7 @@
       </c>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -2994,13 +3029,13 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G57" s="7">
         <v>0</v>
@@ -3025,7 +3060,7 @@
       </c>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
@@ -3036,13 +3071,13 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G58" s="7">
         <v>0</v>
@@ -3067,7 +3102,7 @@
       </c>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>6</v>
       </c>
@@ -3078,13 +3113,13 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
@@ -3109,7 +3144,7 @@
       </c>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>6</v>
       </c>
@@ -3120,13 +3155,13 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G60" s="6">
         <v>0</v>
@@ -3151,7 +3186,7 @@
       </c>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>6</v>
       </c>
@@ -3162,13 +3197,13 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G61" s="7">
         <v>0</v>
@@ -3193,7 +3228,7 @@
       </c>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>6</v>
       </c>
@@ -3204,13 +3239,13 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G62" s="7">
         <v>0</v>
@@ -3235,7 +3270,7 @@
       </c>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -3246,14 +3281,14 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F63" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G63" s="6">
         <v>0</v>
       </c>
@@ -3277,7 +3312,7 @@
       </c>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>6</v>
       </c>
@@ -3288,14 +3323,14 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G64" s="6">
         <v>0</v>
       </c>
@@ -3319,7 +3354,7 @@
       </c>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>6</v>
       </c>
@@ -3330,14 +3365,14 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G65" s="6">
         <v>0</v>
       </c>
@@ -3361,7 +3396,7 @@
       </c>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>6</v>
       </c>
@@ -3372,14 +3407,14 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G66" s="7">
         <v>0</v>
       </c>
@@ -3403,7 +3438,7 @@
       </c>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>6</v>
       </c>
@@ -3414,14 +3449,14 @@
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G67" s="6">
         <v>0</v>
       </c>
@@ -3445,7 +3480,7 @@
       </c>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>7</v>
       </c>
@@ -3456,13 +3491,13 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G68" s="6">
         <v>0</v>
@@ -3487,7 +3522,7 @@
       </c>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>7</v>
       </c>
@@ -3498,13 +3533,13 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G69" s="6">
         <v>0</v>
@@ -3529,7 +3564,7 @@
       </c>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>7</v>
       </c>
@@ -3540,13 +3575,13 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G70" s="6">
         <v>0</v>
@@ -3571,7 +3606,7 @@
       </c>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>7</v>
       </c>
@@ -3582,13 +3617,13 @@
         <v>70</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G71" s="6">
         <v>0</v>
@@ -3613,7 +3648,7 @@
       </c>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>7</v>
       </c>
@@ -3624,13 +3659,13 @@
         <v>71</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G72" s="6">
         <v>0</v>
@@ -3655,7 +3690,7 @@
       </c>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>7</v>
       </c>
@@ -3666,13 +3701,13 @@
         <v>72</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G73" s="6">
         <v>0</v>
@@ -3697,7 +3732,7 @@
       </c>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>7</v>
       </c>
@@ -3708,13 +3743,13 @@
         <v>73</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G74" s="6">
         <v>0</v>
@@ -3739,7 +3774,7 @@
       </c>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>7</v>
       </c>
@@ -3750,13 +3785,13 @@
         <v>74</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G75" s="6">
         <v>0</v>
@@ -3781,7 +3816,7 @@
       </c>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>7</v>
       </c>
@@ -3792,13 +3827,13 @@
         <v>75</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G76" s="6">
         <v>0</v>
@@ -3823,7 +3858,7 @@
       </c>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>7</v>
       </c>
@@ -3834,13 +3869,13 @@
         <v>76</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G77" s="6">
         <v>0</v>
@@ -3865,7 +3900,7 @@
       </c>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>7</v>
       </c>
@@ -3876,13 +3911,13 @@
         <v>77</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G78" s="6">
         <v>0</v>
@@ -3907,7 +3942,7 @@
       </c>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>7</v>
       </c>
@@ -3918,13 +3953,13 @@
         <v>78</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G79" s="6">
         <v>0</v>
@@ -3949,7 +3984,7 @@
       </c>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>7</v>
       </c>
@@ -3960,13 +3995,13 @@
         <v>79</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G80" s="6">
         <v>0</v>
@@ -3991,7 +4026,7 @@
       </c>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>7</v>
       </c>
@@ -4002,13 +4037,13 @@
         <v>80</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G81" s="6">
         <v>0</v>
@@ -4033,7 +4068,7 @@
       </c>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>7</v>
       </c>
@@ -4044,13 +4079,13 @@
         <v>81</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G82" s="6">
         <v>0</v>
@@ -4075,7 +4110,7 @@
       </c>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>7</v>
       </c>
@@ -4086,13 +4121,13 @@
         <v>82</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G83" s="6">
         <v>0</v>
@@ -4117,7 +4152,7 @@
       </c>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>7</v>
       </c>
@@ -4128,13 +4163,13 @@
         <v>83</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G84" s="6">
         <v>0</v>
@@ -4159,7 +4194,7 @@
       </c>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>7</v>
       </c>
@@ -4170,14 +4205,14 @@
         <v>84</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F85" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G85" s="6">
         <v>0</v>
       </c>
@@ -4201,7 +4236,7 @@
       </c>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>7</v>
       </c>
@@ -4212,14 +4247,14 @@
         <v>85</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F86" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G86" s="6">
         <v>0</v>
       </c>
@@ -4243,7 +4278,7 @@
       </c>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>7</v>
       </c>
@@ -4254,14 +4289,14 @@
         <v>86</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F87" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G87" s="6">
         <v>0</v>
       </c>
@@ -4285,7 +4320,7 @@
       </c>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>7</v>
       </c>
@@ -4296,14 +4331,14 @@
         <v>87</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F88" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G88" s="6">
         <v>0</v>
       </c>
@@ -4327,7 +4362,7 @@
       </c>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>7</v>
       </c>
@@ -4338,14 +4373,14 @@
         <v>88</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F89" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G89" s="6">
         <v>0</v>
       </c>
@@ -4369,7 +4404,7 @@
       </c>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>8</v>
       </c>
@@ -4380,13 +4415,13 @@
         <v>89</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G90" s="7">
         <v>0</v>
@@ -4411,7 +4446,7 @@
       </c>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>8</v>
       </c>
@@ -4422,13 +4457,13 @@
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G91" s="7">
         <v>0</v>
@@ -4453,7 +4488,7 @@
       </c>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>8</v>
       </c>
@@ -4464,13 +4499,13 @@
         <v>91</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G92" s="7">
         <v>0</v>
@@ -4495,7 +4530,7 @@
       </c>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>8</v>
       </c>
@@ -4506,13 +4541,13 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G93" s="7">
         <v>0</v>
@@ -4537,7 +4572,7 @@
       </c>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>8</v>
       </c>
@@ -4548,13 +4583,13 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G94" s="7">
         <v>0</v>
@@ -4579,7 +4614,7 @@
       </c>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>8</v>
       </c>
@@ -4590,13 +4625,13 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G95" s="7">
         <v>0</v>
@@ -4621,7 +4656,7 @@
       </c>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>8</v>
       </c>
@@ -4632,13 +4667,13 @@
         <v>95</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G96" s="7">
         <v>0</v>
@@ -4663,7 +4698,7 @@
       </c>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>8</v>
       </c>
@@ -4674,13 +4709,13 @@
         <v>96</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G97" s="7">
         <v>0</v>
@@ -4705,7 +4740,7 @@
       </c>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>8</v>
       </c>
@@ -4716,13 +4751,13 @@
         <v>97</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G98" s="7">
         <v>0</v>
@@ -4747,7 +4782,7 @@
       </c>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>8</v>
       </c>
@@ -4758,13 +4793,13 @@
         <v>98</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G99" s="7">
         <v>0</v>
@@ -4789,7 +4824,7 @@
       </c>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>8</v>
       </c>
@@ -4800,13 +4835,13 @@
         <v>99</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G100" s="7">
         <v>0</v>
@@ -4831,7 +4866,7 @@
       </c>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>8</v>
       </c>
@@ -4842,13 +4877,13 @@
         <v>100</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G101" s="7">
         <v>0</v>
@@ -4873,7 +4908,7 @@
       </c>
       <c r="N101" s="2"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>8</v>
       </c>
@@ -4884,13 +4919,13 @@
         <v>101</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G102" s="7">
         <v>0</v>
@@ -4915,7 +4950,7 @@
       </c>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>8</v>
       </c>
@@ -4926,13 +4961,13 @@
         <v>102</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G103" s="7">
         <v>0</v>
@@ -4957,7 +4992,7 @@
       </c>
       <c r="N103" s="2"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>8</v>
       </c>
@@ -4968,13 +5003,13 @@
         <v>103</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G104" s="7">
         <v>0</v>
@@ -4999,7 +5034,7 @@
       </c>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>8</v>
       </c>
@@ -5010,13 +5045,13 @@
         <v>104</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G105" s="7">
         <v>0</v>
@@ -5041,7 +5076,7 @@
       </c>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>8</v>
       </c>
@@ -5052,13 +5087,13 @@
         <v>105</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G106" s="7">
         <v>0</v>
@@ -5083,7 +5118,7 @@
       </c>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>8</v>
       </c>
@@ -5094,13 +5129,13 @@
         <v>106</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G107" s="7">
         <v>0</v>
@@ -5125,7 +5160,7 @@
       </c>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>8</v>
       </c>
@@ -5136,13 +5171,13 @@
         <v>107</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G108" s="7">
         <v>0</v>
@@ -5167,7 +5202,7 @@
       </c>
       <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>8</v>
       </c>
@@ -5178,13 +5213,13 @@
         <v>108</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G109" s="7">
         <v>0</v>
@@ -5209,7 +5244,7 @@
       </c>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>8</v>
       </c>
@@ -5220,13 +5255,13 @@
         <v>109</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G110" s="7">
         <v>0</v>
@@ -5251,7 +5286,7 @@
       </c>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>8</v>
       </c>
@@ -5262,13 +5297,13 @@
         <v>110</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G111" s="7">
         <v>0</v>
@@ -5293,7 +5328,7 @@
       </c>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>8</v>
       </c>
@@ -5304,14 +5339,14 @@
         <v>111</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E112" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F112" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G112" s="7">
         <v>0</v>
       </c>
@@ -5335,7 +5370,7 @@
       </c>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>8</v>
       </c>
@@ -5346,14 +5381,14 @@
         <v>112</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E113" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F113" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G113" s="7">
         <v>0</v>
       </c>
@@ -5377,7 +5412,7 @@
       </c>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>8</v>
       </c>
@@ -5388,14 +5423,14 @@
         <v>113</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E114" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F114" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G114" s="7">
         <v>0</v>
       </c>
@@ -5419,7 +5454,7 @@
       </c>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>8</v>
       </c>
@@ -5430,14 +5465,14 @@
         <v>114</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E115" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F115" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G115" s="7">
         <v>0</v>
       </c>
@@ -5461,7 +5496,7 @@
       </c>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>8</v>
       </c>
@@ -5472,14 +5507,14 @@
         <v>115</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E116" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F116" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G116" s="7">
         <v>0</v>
       </c>
@@ -5503,7 +5538,7 @@
       </c>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>8</v>
       </c>
@@ -5514,14 +5549,14 @@
         <v>116</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E117" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F117" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G117" s="7">
         <v>0</v>
       </c>
@@ -5545,7 +5580,7 @@
       </c>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>8</v>
       </c>
@@ -5556,13 +5591,13 @@
         <v>117</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G118" s="7">
         <v>0</v>
@@ -5587,7 +5622,7 @@
       </c>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>8</v>
       </c>
@@ -5598,13 +5633,13 @@
         <v>118</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G119" s="7">
         <v>0</v>
@@ -5629,7 +5664,7 @@
       </c>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>8</v>
       </c>
@@ -5640,13 +5675,13 @@
         <v>119</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G120" s="7">
         <v>0</v>
@@ -5671,7 +5706,7 @@
       </c>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>8</v>
       </c>
@@ -5682,13 +5717,13 @@
         <v>120</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G121" s="7">
         <v>0</v>
@@ -5713,7 +5748,7 @@
       </c>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>8</v>
       </c>
@@ -5724,13 +5759,13 @@
         <v>121</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G122" s="7">
         <v>0</v>
@@ -5755,7 +5790,7 @@
       </c>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>8</v>
       </c>
@@ -5766,13 +5801,13 @@
         <v>122</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G123" s="7">
         <v>0</v>
@@ -5797,7 +5832,7 @@
       </c>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>8</v>
       </c>
@@ -5808,13 +5843,13 @@
         <v>123</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G124" s="7">
         <v>0</v>
@@ -5839,7 +5874,7 @@
       </c>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>8</v>
       </c>
@@ -5850,13 +5885,13 @@
         <v>124</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G125" s="7">
         <v>0</v>
@@ -5922,7 +5957,7 @@
       <c r="BH125" s="4"/>
       <c r="BI125" s="4"/>
     </row>
-    <row r="126" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>8</v>
       </c>
@@ -5933,13 +5968,13 @@
         <v>125</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G126" s="7">
         <v>0</v>
@@ -6005,7 +6040,7 @@
       <c r="BH126" s="4"/>
       <c r="BI126" s="4"/>
     </row>
-    <row r="127" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>8</v>
       </c>
@@ -6016,13 +6051,13 @@
         <v>126</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G127" s="7">
         <v>0</v>
@@ -6047,7 +6082,7 @@
       </c>
       <c r="AG127" s="2"/>
     </row>
-    <row r="128" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>8</v>
       </c>
@@ -6058,13 +6093,13 @@
         <v>127</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G128" s="7">
         <v>0</v>
@@ -6098,7 +6133,7 @@
       <c r="BA128" s="3"/>
       <c r="BB128" s="3"/>
     </row>
-    <row r="129" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>8</v>
       </c>
@@ -6109,13 +6144,13 @@
         <v>128</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G129" s="7">
         <v>0</v>
@@ -6140,7 +6175,7 @@
       </c>
       <c r="AG129" s="2"/>
     </row>
-    <row r="130" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>8</v>
       </c>
@@ -6151,13 +6186,13 @@
         <v>129</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G130" s="7">
         <v>0</v>
@@ -6205,7 +6240,7 @@
       <c r="BG130" s="3"/>
       <c r="BH130" s="3"/>
     </row>
-    <row r="131" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>8</v>
       </c>
@@ -6216,14 +6251,14 @@
         <v>130</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E131" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F131" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G131" s="7">
         <v>0</v>
       </c>
@@ -6246,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>8</v>
       </c>
@@ -6257,14 +6292,14 @@
         <v>131</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E132" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F132" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G132" s="7">
         <v>0</v>
       </c>
@@ -6287,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>8</v>
       </c>
@@ -6298,13 +6333,13 @@
         <v>132</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E133" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="G133" s="7">
         <v>0</v>
